--- a/biology/Zoologie/Discoceloidea/Discoceloidea.xlsx
+++ b/biology/Zoologie/Discoceloidea/Discoceloidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Discoceloidea sont une super-famille de vers plats marins du sous-ordre des Acotylea (ordre des Polycladida).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,14 +551,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La super-famille des Discoceloidea a été créée en 2019 par Isabel Lucia Dittmann (d), Daniel Cuadrado (d), María Teresa Aguado (d), Carolina Noreña (d) et Bernhard Egger (d)[1],[2].
-Discoceloidea a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super-famille des Discoceloidea a été créée en 2019 par Isabel Lucia Dittmann (d), Daniel Cuadrado (d), María Teresa Aguado (d), Carolina Noreña (d) et Bernhard Egger (d),.
+Discoceloidea a pour synonymes :
 Cryptoceloidea Bahia, Padula &amp; Schrödl, 2017
 Emprosthommatidea Bock, 1913
 Ilyplanoidea Faubel, 1984
-Toutefois, si la base de données World Register of Marine Species                               (18 novembre 2023)[1] considère la super-famille des Cryptoceloidea comme un synonyme junior des Discoceloidea, elle présente ces deux super-familles de manière distincte avec leur propre liste de familles. La même distinction entre ces deux super-familles est faite dans les articles correspondants.
+Toutefois, si la base de données World Register of Marine Species                               (18 novembre 2023) considère la super-famille des Cryptoceloidea comme un synonyme junior des Discoceloidea, elle présente ces deux super-familles de manière distincte avec leur propre liste de familles. La même distinction entre ces deux super-familles est faite dans les articles correspondants.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la base de données World Register of Marine Species                               (18 novembre 2023)[1], la super-famille des Discoceloidea regroupe les familles suivantes :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (18 novembre 2023), la super-famille des Discoceloidea regroupe les familles suivantes :
 Famille des Cryptocelidae Laidlaw, 1903
 Famille des Ilyplanidae Faubel, 1983
 Famille des Discocelidae Laidlaw, 1903, acceptée comme Discocelididae Laidlaw, 1903</t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Isabel L. Dittmann, Daniel Cuadrado, Maria Teresa Aguado, Carolina Noreña et Bernhard Egger, « Polyclad phylogeny persists to be problematic », Organisms Diversity and Evolution, Springer Science+Business Media, vol. 19, no 4,‎ 16 septembre 2019, p. 585-608 (ISSN 1439-6092 et 1618-1077, DOI 10.1007/S13127-019-00415-1, lire en ligne)</t>
         </is>
